--- a/game_config/game_config.xlsx
+++ b/game_config/game_config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zlinxx/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA4AEFE-1D68-0F49-B0A2-28EB028C7FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20580" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>lx</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6FAF8FDB-DF87-4248-AA5F-1B81E2318F68}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +29,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>lx:</t>
@@ -45,62 +38,11 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：不出现看视频进入下一关按钮</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：出现看视频进入下一关按钮</t>
+0：不出现看视频进入下一关按钮
+1：出现看视频进入下一关按钮</t>
         </r>
       </text>
     </comment>
@@ -109,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>关卡</t>
   </si>
@@ -120,17 +62,20 @@
     <t>颜色种类</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>看视频进入下一关</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,51 +84,365 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,31 +450,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,37 +1047,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2060"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A982" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1003" sqref="F1003"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A968" workbookViewId="0">
+      <selection activeCell="E1000" sqref="E1:M1000"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="9.33203125"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.33333333333333"/>
+    <col min="3" max="3" width="12.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -545,7 +1090,7 @@
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -559,7 +1104,7 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -573,7 +1118,7 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -587,7 +1132,7 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -601,7 +1146,7 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -615,7 +1160,7 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -629,7 +1174,7 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -643,7 +1188,7 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -657,7 +1202,7 @@
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -671,7 +1216,7 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -685,7 +1230,7 @@
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -699,7 +1244,7 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -713,7 +1258,7 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -727,7 +1272,7 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -741,7 +1286,7 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -755,7 +1300,7 @@
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -769,7 +1314,7 @@
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -783,7 +1328,7 @@
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -797,7 +1342,7 @@
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -811,7 +1356,7 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>1</v>
       </c>
     </row>
@@ -825,7 +1370,7 @@
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -839,7 +1384,7 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -853,7 +1398,7 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -867,7 +1412,7 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -881,7 +1426,7 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -895,7 +1440,7 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -909,7 +1454,7 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -923,7 +1468,7 @@
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -937,7 +1482,7 @@
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -951,7 +1496,7 @@
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -965,7 +1510,7 @@
       <c r="C32">
         <v>4</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -979,7 +1524,7 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -993,7 +1538,7 @@
       <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1007,7 +1552,7 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1021,7 +1566,7 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1035,7 +1580,7 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1049,7 +1594,7 @@
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1063,7 +1608,7 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1077,7 +1622,7 @@
       <c r="C40">
         <v>4</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1091,7 +1636,7 @@
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1105,7 +1650,7 @@
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1119,7 +1664,7 @@
       <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1133,7 +1678,7 @@
       <c r="C44">
         <v>4</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1147,7 +1692,7 @@
       <c r="C45">
         <v>4</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1161,7 +1706,7 @@
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1175,7 +1720,7 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1189,11 +1734,11 @@
       <c r="C48">
         <v>4</v>
       </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1203,11 +1748,11 @@
       <c r="C49">
         <v>4</v>
       </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1217,11 +1762,11 @@
       <c r="C50">
         <v>4</v>
       </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1231,11 +1776,11 @@
       <c r="C51">
         <v>4</v>
       </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1245,11 +1790,11 @@
       <c r="C52">
         <v>4</v>
       </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1259,14 +1804,11 @@
       <c r="C53">
         <v>4</v>
       </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1276,11 +1818,11 @@
       <c r="C54">
         <v>4</v>
       </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1290,11 +1832,11 @@
       <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1304,11 +1846,11 @@
       <c r="C56">
         <v>4</v>
       </c>
-      <c r="D56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1318,11 +1860,11 @@
       <c r="C57">
         <v>4</v>
       </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1332,11 +1874,11 @@
       <c r="C58">
         <v>4</v>
       </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1346,11 +1888,11 @@
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1360,11 +1902,11 @@
       <c r="C60">
         <v>4</v>
       </c>
-      <c r="D60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1374,11 +1916,11 @@
       <c r="C61">
         <v>4</v>
       </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1388,11 +1930,11 @@
       <c r="C62">
         <v>4</v>
       </c>
-      <c r="D62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1402,11 +1944,11 @@
       <c r="C63">
         <v>4</v>
       </c>
-      <c r="D63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1416,7 +1958,7 @@
       <c r="C64">
         <v>4</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1430,7 +1972,7 @@
       <c r="C65">
         <v>4</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1444,7 +1986,7 @@
       <c r="C66">
         <v>4</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1458,7 +2000,7 @@
       <c r="C67">
         <v>4</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1472,7 +2014,7 @@
       <c r="C68">
         <v>4</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1486,7 +2028,7 @@
       <c r="C69">
         <v>4</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1500,7 +2042,7 @@
       <c r="C70">
         <v>4</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1514,7 +2056,7 @@
       <c r="C71">
         <v>4</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1528,7 +2070,7 @@
       <c r="C72">
         <v>4</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1542,7 +2084,7 @@
       <c r="C73">
         <v>4</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1556,7 +2098,7 @@
       <c r="C74">
         <v>4</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1570,7 +2112,7 @@
       <c r="C75">
         <v>4</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1584,7 +2126,7 @@
       <c r="C76">
         <v>4</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1598,7 +2140,7 @@
       <c r="C77">
         <v>4</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1612,7 +2154,7 @@
       <c r="C78">
         <v>4</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1626,7 +2168,7 @@
       <c r="C79">
         <v>4</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1640,7 +2182,7 @@
       <c r="C80">
         <v>4</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1654,7 +2196,7 @@
       <c r="C81">
         <v>4</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1668,7 +2210,7 @@
       <c r="C82">
         <v>4</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1682,7 +2224,7 @@
       <c r="C83">
         <v>4</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1696,7 +2238,7 @@
       <c r="C84">
         <v>4</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1710,7 +2252,7 @@
       <c r="C85">
         <v>4</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1724,7 +2266,7 @@
       <c r="C86">
         <v>4</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1738,7 +2280,7 @@
       <c r="C87">
         <v>4</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1752,7 +2294,7 @@
       <c r="C88">
         <v>4</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1766,7 +2308,7 @@
       <c r="C89">
         <v>4</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1780,7 +2322,7 @@
       <c r="C90">
         <v>4</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1794,7 +2336,7 @@
       <c r="C91">
         <v>4</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1808,7 +2350,7 @@
       <c r="C92">
         <v>4</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1822,7 +2364,7 @@
       <c r="C93">
         <v>4</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1836,7 +2378,7 @@
       <c r="C94">
         <v>4</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1850,7 +2392,7 @@
       <c r="C95">
         <v>4</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1864,7 +2406,7 @@
       <c r="C96">
         <v>4</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1878,7 +2420,7 @@
       <c r="C97">
         <v>4</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1892,7 +2434,7 @@
       <c r="C98">
         <v>4</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1906,7 +2448,7 @@
       <c r="C99">
         <v>4</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1920,7 +2462,7 @@
       <c r="C100">
         <v>4</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1934,7 +2476,7 @@
       <c r="C101">
         <v>4</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="1">
         <v>1</v>
       </c>
     </row>
@@ -14524,28 +15066,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:4">
+    <row r="1001" spans="4:4">
       <c r="D1001" s="3"/>
     </row>
-    <row r="1002" spans="1:4">
+    <row r="1002" spans="4:4">
       <c r="D1002" s="3"/>
     </row>
-    <row r="1003" spans="1:4">
+    <row r="1003" spans="4:4">
       <c r="D1003" s="3"/>
     </row>
-    <row r="1004" spans="1:4">
+    <row r="1004" spans="4:4">
       <c r="D1004" s="3"/>
     </row>
-    <row r="1005" spans="1:4">
+    <row r="1005" spans="4:4">
       <c r="D1005" s="3"/>
     </row>
-    <row r="1006" spans="1:4">
+    <row r="1006" spans="4:4">
       <c r="D1006" s="3"/>
     </row>
-    <row r="1007" spans="1:4">
+    <row r="1007" spans="4:4">
       <c r="D1007" s="3"/>
     </row>
-    <row r="1008" spans="1:4">
+    <row r="1008" spans="4:4">
       <c r="D1008" s="3"/>
     </row>
     <row r="1009" spans="4:4">
@@ -17705,35 +18247,41 @@
       <c r="D2060" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>